--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission _New Screens.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission _New Screens.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TC01_Student Reregistration Too" sheetId="1" r:id="rId1"/>
+    <sheet name="TC01_Student Re-Reg. Tool" sheetId="1" r:id="rId1"/>
     <sheet name="TC02_Student Attrition Form" sheetId="2" r:id="rId2"/>
     <sheet name="TC03_Identity Card" sheetId="3" r:id="rId3"/>
     <sheet name="TC04_Identity Card Tool" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="295">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual Results </t>
+    <t>Actual Results (SLCM Admin )</t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -83,6 +83,9 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>BUG ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admission &gt;  Student Reregistration Tool </t>
   </si>
   <si>
@@ -92,10 +95,25 @@
     <t>Student Reregistration Tool  page should be open</t>
   </si>
   <si>
+    <t>Student Reregistration Tool  page is not showing to SLCM Admin</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>EDU Admin has not get permission</t>
+  </si>
+  <si>
     <t>View the Student Reregistration Tool  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Student Reregistration Tool  page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data is showing on Student Reregistration Tool  page</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>click on course type dropdown, select the data from dropdown</t>
@@ -105,6 +123,10 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>user is able to select the data from course type dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on course  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -112,6 +134,10 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>user is able to select the data from course  dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Semester  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -119,6 +145,10 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>user is able to select the data from Semester  dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Academic Year  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -126,6 +156,10 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>user is able to select the data from Academic Year  dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Academic Term  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -133,10 +167,17 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>user is able to select the data from Academic Term  dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>after fill course type, course, semester, academic year &amp; academic term, click on Get student button</t>
   </si>
   <si>
-    <t>list of students should be shown properly</t>
+    <t>list of students and their datas should be shown properly</t>
+  </si>
+  <si>
+    <t>Roll number and registration number is not showing</t>
   </si>
   <si>
     <t>click on add row button of students table</t>
@@ -145,16 +186,25 @@
     <t>new row should be added in student table</t>
   </si>
   <si>
+    <t>new row is adding in student table</t>
+  </si>
+  <si>
     <t>click on view button of table</t>
   </si>
   <si>
     <t>student details should be shown properly</t>
   </si>
   <si>
+    <t>student details is showing properly</t>
+  </si>
+  <si>
     <t>verify the student details</t>
   </si>
   <si>
     <t>student details should be editable</t>
+  </si>
+  <si>
+    <t>student details is editable</t>
   </si>
   <si>
     <t>click on Student dropdown, select the student</t>
@@ -165,6 +215,11 @@
 that student details should be auto fetched</t>
   </si>
   <si>
+    <t>user is able to select the student
+it is a link field
+that student details is auto fetched</t>
+  </si>
+  <si>
     <t>click on Student Batch Name dropdown, select data</t>
   </si>
   <si>
@@ -173,6 +228,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Student Batch Name dropdown is clickable
+user is able to select data from Student Batch Name dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Additional Course 1 dropdown, select data</t>
   </si>
   <si>
@@ -181,6 +241,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Additional Course 1 dropdown is clickable
+user is able to select data from Additional Course 1 dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Additional Course 2 dropdown, select data</t>
   </si>
   <si>
@@ -189,6 +254,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Additional Course 2 dropdown is clickable
+user is able to select data from Additional Course 2 dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Additional Course 3 dropdown, select data</t>
   </si>
   <si>
@@ -197,6 +267,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Additional Course 3 dropdown is clickable
+user is able to select data from Additional Course 2 dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Roll No text field, fill it</t>
   </si>
   <si>
@@ -204,11 +279,19 @@
 user should able to fill Roll No text field</t>
   </si>
   <si>
+    <t>Roll No textbox is clickable
+user is able to fill Roll No text field</t>
+  </si>
+  <si>
     <t>click on Registration Number text field, fill it</t>
   </si>
   <si>
     <t>Registration Number textbox should be clickable
 user should able to fill Registration Number text field</t>
+  </si>
+  <si>
+    <t>Registration Number textbox is clickable
+user is able to fill Registration Number text field</t>
   </si>
   <si>
     <t>click on New Semester dropdown, select data</t>
@@ -219,6 +302,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>New Semester dropdown is clickable
+user is able to select data from New Semester dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on New Student Batch dropdown, select data</t>
   </si>
   <si>
@@ -227,6 +315,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>New Student Batch dropdown is clickable
+user is able to select data from New Student Batch dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on New Academic Year dropdown, select data</t>
   </si>
   <si>
@@ -235,6 +328,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>New Academic Year dropdown is clickable
+user is able to select data from New Academic Year dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on New Academic Term dropdown, select data</t>
   </si>
   <si>
@@ -243,6 +341,11 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>New Academic Term dropdown is clickable
+user is able to select data from New Academic Term dropdown
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Fees Due Date field, put the date</t>
   </si>
   <si>
@@ -251,11 +354,19 @@
 user should able to put the date</t>
   </si>
   <si>
+    <t>Fees Due Date field is clickable. 
+date picker box is opening
+user is able to put the date</t>
+  </si>
+  <si>
     <t>click on Enroll Students button</t>
   </si>
   <si>
     <t xml:space="preserve">students should be enrolled for particular mentioned course
 Mandatory Courses table should be auto fetched </t>
+  </si>
+  <si>
+    <t>After fill all mandatory and required fields, click on Enroll students button, then Enrolling students is not done properly. screen is freezed. background screen is erased</t>
   </si>
   <si>
     <t>Roles And Permission</t>
@@ -330,6 +441,12 @@
     <t>New Student Attrition Form, Student Information, Reason For Leaving</t>
   </si>
   <si>
+    <t>Actual Results (SLCM Admin)</t>
+  </si>
+  <si>
+    <t>Actual Results (Student)</t>
+  </si>
+  <si>
     <t>Admission &gt;  Student Attrition Form</t>
   </si>
   <si>
@@ -339,16 +456,25 @@
     <t>Student Attrition Form  page should be open</t>
   </si>
   <si>
+    <t>Student Attrition Form  page is opening</t>
+  </si>
+  <si>
     <t>View the Student Attrition Form  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Student Attrition Form  page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on Student Attrition Form  page</t>
+  </si>
+  <si>
     <t>Click on add Student Attrition Form button</t>
   </si>
   <si>
     <t>new Student Attrition Form should be created</t>
+  </si>
+  <si>
+    <t>new Student Attrition Form is created</t>
   </si>
   <si>
     <t>click on Student No dropdown, select the student</t>
@@ -357,6 +483,11 @@
     <t>Student No dropdown should be clickable
 user should able to select student
 it should be a link field</t>
+  </si>
+  <si>
+    <t>Student No dropdown is clickable
+user is able to select student
+it is a link field</t>
   </si>
   <si>
     <t>verify the Student Information after select the student</t>
@@ -368,6 +499,12 @@
 mobile number field should only be editable</t>
   </si>
   <si>
+    <t>Student Information is auto fetched
+Student Name, Joining Date, Student Applicant, Student Email Address, Student Mobile Number, Student Category, Gender fields are auto fetched
+that fields is not editable
+mobile number field is only  editable</t>
+  </si>
+  <si>
     <t>click on mobile numbertext field, fill it or edity edit</t>
   </si>
   <si>
@@ -375,6 +512,10 @@
 user should able to fill or edit it only with numeric</t>
   </si>
   <si>
+    <t>mobile number field is clickable
+user is able to fill or edit it only with numeric</t>
+  </si>
+  <si>
     <t xml:space="preserve">verify the Current Educational Details after fill student </t>
   </si>
   <si>
@@ -382,6 +523,10 @@
 Status of Attendence, Posting Date fields should be auto fetched</t>
   </si>
   <si>
+    <t>Current Educational Detailsis auto fetched
+Status of Attendence, Posting Date fields are auto fetched</t>
+  </si>
+  <si>
     <t>click on Decided to further education or training abroad dropdown</t>
   </si>
   <si>
@@ -389,10 +534,17 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Decided to further education or training abroad dropdown
+default data is : Yes &amp; No</t>
+  </si>
+  <si>
     <t>verify the screen when user select 'Yes' in Decided to further education or training abroad dropdown</t>
   </si>
   <si>
     <t>Name of Institution, Level of Course, Course Title  fields should be open</t>
+  </si>
+  <si>
+    <t>Name of Institution, Level of Course, Course Title  fields are opening</t>
   </si>
   <si>
     <t>click on Name of Institution text field, fill it</t>
@@ -402,6 +554,10 @@
 user should able to fill Name of Institution text field</t>
   </si>
   <si>
+    <t>Name of Institution text field is clickable. 
+user is able to fill Name of Institution text field</t>
+  </si>
+  <si>
     <t>click on Level of Course dropdown , select data</t>
   </si>
   <si>
@@ -409,6 +565,10 @@
 default data should be : ITI,  Diploma, Engineering, Other </t>
   </si>
   <si>
+    <t xml:space="preserve">User is able to select data from Level of Course dropdwon 
+default data is : ITI,  Diploma, Engineering, Other </t>
+  </si>
+  <si>
     <t>click on Course Title  text field, fill it</t>
   </si>
   <si>
@@ -416,6 +576,10 @@
 user should able to fill Course Title  text field</t>
   </si>
   <si>
+    <t>Course Title  text field is clickable. 
+user is able to fill Course Title  text field</t>
+  </si>
+  <si>
     <t>click on Decided to join other local institution dropdown</t>
   </si>
   <si>
@@ -423,6 +587,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Decided to join other local institution dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Decided to join the College, Polytechnic dropdown</t>
   </si>
   <si>
@@ -430,6 +598,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Decided to join the College, Polytechnic dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Had to work to supplement family income  dropdown</t>
   </si>
   <si>
@@ -437,6 +609,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Had to work to supplement family income dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Preferred to work than to continue with training  dropdown</t>
   </si>
   <si>
@@ -444,6 +620,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Preferred to work than to continue with training dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Needed to help out in family business  dropdown</t>
   </si>
   <si>
@@ -451,6 +631,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Needed to help out in family business dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Needed to work to support myself dropdown</t>
   </si>
   <si>
@@ -458,6 +642,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Needed to work to support myself dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Lost interest in study dropdown</t>
   </si>
   <si>
@@ -465,6 +653,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Lost interest in study dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Course not of my interest/choice dropdown</t>
   </si>
   <si>
@@ -472,6 +664,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Course not of my interest/choice dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Persuaded to leave by parents/family members/relatives dropdown</t>
   </si>
   <si>
@@ -479,6 +675,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Persuaded to leave by parents/family members/relatives dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Campus/Hostel too far from home dropdown</t>
   </si>
   <si>
@@ -486,11 +686,19 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Campus/Hostel too far from home dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Family problems dropdown</t>
   </si>
   <si>
     <t>user should able to select data from Family problems dropdown
 default data should be : Yes &amp; No</t>
+  </si>
+  <si>
+    <t>user is able to select data from Family problems dropdown
+default data is  : Yes &amp; No</t>
   </si>
   <si>
     <t>click on Could not cope with course dropdown</t>
@@ -501,6 +709,11 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Could not cope with course
+ dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Medical reasons dropdown</t>
   </si>
   <si>
@@ -508,6 +721,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Medical reasons dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Enforced attrition (under full time legal detention) dropdown</t>
   </si>
   <si>
@@ -515,6 +732,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Enforced attrition (under full time legal detention) dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Non reporting dropdown</t>
   </si>
   <si>
@@ -522,6 +743,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Non reporting dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Long absence from training without reason and not contactable dropdown</t>
   </si>
   <si>
@@ -529,6 +754,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Long absence from training without reason and not contactable dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Classmates and peers not helpful and friendly dropdown</t>
   </si>
   <si>
@@ -536,6 +765,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Classmates and peers not helpful and friendly dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Unable to pay fees due to Financial Difficulties dropdown</t>
   </si>
   <si>
@@ -543,6 +776,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Unable to pay fees due to Financial Difficulties dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Deceased dropdown</t>
   </si>
   <si>
@@ -550,28 +787,175 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
+    <t>user is able to select data from Deceased dropdown
+default data is  : Yes &amp; No</t>
+  </si>
+  <si>
     <t>click on Additional Details by CA text area, fill it</t>
   </si>
   <si>
     <t>Additional Details by CA text raea should be clickable. user should able to fill it</t>
   </si>
   <si>
+    <t>Additional Details by CA text raea is clickable. user is able to fill it</t>
+  </si>
+  <si>
     <t>after fill all mandatory and required fields, click on save button</t>
   </si>
   <si>
     <t xml:space="preserve">page should be saved successfully. it should be on draft stage. </t>
   </si>
   <si>
+    <t xml:space="preserve">page is saved successfully. it is on draft stage. </t>
+  </si>
+  <si>
     <t>click on action - &gt; submit button</t>
   </si>
   <si>
     <t xml:space="preserve">page should be submitted successfiully. it should be on submit stage. </t>
   </si>
   <si>
+    <t xml:space="preserve">action for submit is not showing to SLCM Admin </t>
+  </si>
+  <si>
     <t>click on action - &gt; approve button</t>
   </si>
   <si>
     <t xml:space="preserve">page should be approved successfiully. it should be on approved stage. </t>
+  </si>
+  <si>
+    <t>action for approve is not showing to SlCM Admin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select, Read,Write,Create,Delete, submit, cancel , amend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select, Read,Write,Create,Delete, 
+but can't  submit, cancel , amend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create,
+but can't Delete</t>
+    </r>
   </si>
   <si>
     <t>TC03_Identity Card</t>
@@ -588,6 +972,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Actual Results </t>
+  </si>
+  <si>
     <t>Admission &gt;  Identity Card</t>
   </si>
   <si>
@@ -597,22 +984,34 @@
     <t>Identity Card  page should be open</t>
   </si>
   <si>
+    <t>Identity Card  page is opening</t>
+  </si>
+  <si>
     <t>View the Identity Card  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Identity Card  page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on Identity Card  page</t>
+  </si>
+  <si>
     <t>Click on add Identity Card button</t>
   </si>
   <si>
     <t>new Identity Card should be created</t>
   </si>
   <si>
+    <t>new Identity Card is creating</t>
+  </si>
+  <si>
     <t>Click on Student dropdown , selet the data</t>
   </si>
   <si>
     <t xml:space="preserve">User should able to select the student from Student dropdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to select the student from Student dropdown </t>
   </si>
   <si>
     <t>verify the screen after select Student</t>
@@ -622,6 +1021,10 @@
 it should not be editable. passport photo, Class/Stream should be editable only</t>
   </si>
   <si>
+    <t>Student Name, Roll No, Father's Name, Class/Stream, Passport Photo,  D.O.B &amp; Blood Groups are auto fetched
+it is not editable. passport photo, Class/Stream should be editable only</t>
+  </si>
+  <si>
     <t>click on Class/Stream dropdown , select the data</t>
   </si>
   <si>
@@ -629,6 +1032,10 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Class/Stream dropdown is clickable. user is able to select the data from Class/Stream. 
+it is a link field</t>
+  </si>
+  <si>
     <t>click on Session dropdown , select the data</t>
   </si>
   <si>
@@ -636,6 +1043,19 @@
 it should be a link field</t>
   </si>
   <si>
+    <t>Session dropdown is clickable. user is able to select the data from Session. 
+it is a link field</t>
+  </si>
+  <si>
+    <t>type the barcode, then Verify the Barcode</t>
+  </si>
+  <si>
+    <t>Barcode should be auto generated</t>
+  </si>
+  <si>
+    <t>Barcode is auto generated</t>
+  </si>
+  <si>
     <t>click on Attach button of passport photo</t>
   </si>
   <si>
@@ -643,6 +1063,10 @@
 link should be shown for choose the document or photo</t>
   </si>
   <si>
+    <t>new popup is opening
+link is showing for choose the document or photo</t>
+  </si>
+  <si>
     <t>click any link , choose the photo</t>
   </si>
   <si>
@@ -650,10 +1074,17 @@
 user should able to choose the photo through link</t>
   </si>
   <si>
+    <t>link is clickable.
+user is able to choose the photo through link</t>
+  </si>
+  <si>
     <t>click on upload button</t>
   </si>
   <si>
     <t>photo should be uploaded</t>
+  </si>
+  <si>
+    <t>photo is uploading</t>
   </si>
   <si>
     <t>click on Attach button of Principal</t>
@@ -666,10 +1097,37 @@
 user should able to choose the document through link</t>
   </si>
   <si>
+    <t>link is clickable.
+user is able to choose the document through link</t>
+  </si>
+  <si>
     <t>document should be uploaded</t>
   </si>
   <si>
+    <t>document is uploading</t>
+  </si>
+  <si>
     <t>page should be saved successfully.</t>
+  </si>
+  <si>
+    <t>page is saved successfully.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
   </si>
   <si>
     <t>TC04_Identity Card Tool</t>
@@ -756,6 +1214,57 @@
   </si>
   <si>
     <t>identity cards of bulk students should be created</t>
+  </si>
+  <si>
+    <t>Then click on create identity card button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identity card should be created for those students </t>
+  </si>
+  <si>
+    <t>Identity card is not generated, when click on create identity card button
+Server error message is showing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Read,Write,Create,Delete</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -768,7 +1277,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +1313,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1297,64 +1813,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,10 +1879,10 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,10 +1891,10 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,10 +1903,10 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1399,10 +1915,10 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1411,10 +1927,10 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1423,11 +1939,11 @@
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,6 +1990,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2009,10 +2531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2020,9 +2542,9 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8571428571429" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
@@ -2147,12 +2669,14 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2160,108 +2684,140 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
@@ -2270,28 +2826,38 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>275</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
@@ -2300,13 +2866,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
@@ -2315,13 +2885,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -2330,73 +2904,93 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="24" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
@@ -2405,13 +2999,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
@@ -2420,73 +3018,93 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A29" s="8">
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="30" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A30" s="8">
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="31" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A31" s="8">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A32" s="8">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
@@ -2495,30 +3113,40 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="34" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A34" s="8">
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>271</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="11"/>
@@ -2526,35 +3154,42 @@
     <row r="36" s="1" customFormat="1" spans="1:1">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
+    <row r="37" s="1" customFormat="1" spans="1:6">
       <c r="A37" s="11"/>
       <c r="B37" s="12" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="13" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A38" s="11"/>
       <c r="B38" s="15" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="11">
+        <v>269</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:1">
       <c r="A39" s="11"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:1">
-      <c r="A40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2570,29 +3205,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:C43"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2601,8 +3240,12 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2616,8 +3259,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2625,8 +3272,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2640,8 +3291,12 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2653,8 +3308,12 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2662,21 +3321,29 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2684,8 +3351,12 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2696,565 +3367,1044 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="G11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="G12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="G14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="90" spans="1:11">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A27" s="8">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A28" s="8">
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A29" s="8">
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A30" s="8">
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A31" s="8">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A32" s="8">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A33" s="8">
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="60" spans="1:11">
       <c r="A34" s="8">
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A35" s="8">
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A36" s="8">
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A37" s="8">
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="60" spans="1:11">
       <c r="A38" s="8">
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A39" s="8">
         <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="G39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="45" spans="1:11">
       <c r="A40" s="8">
         <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A41" s="8">
         <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:7">
+      <c r="G41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:11">
       <c r="A42" s="8">
         <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:7">
+      <c r="G42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:11">
       <c r="A43" s="8">
         <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:7">
+      <c r="G43" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:11">
       <c r="A44" s="8">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:7">
+        <v>207</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3">
+        <v>272</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:11">
       <c r="A45" s="8">
         <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="3">
+        <v>273</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:1">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:1">
+    <row r="47" s="1" customFormat="1" spans="1:6">
       <c r="A47" s="11"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="B47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A48" s="11"/>
+      <c r="B48" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="11"/>
+      <c r="B49" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="3">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:K1"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3264,10 +4414,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3275,7 +4425,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -3286,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3342,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3366,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3394,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3407,7 +4557,7 @@
     <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3420,13 +4570,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
@@ -3435,13 +4589,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
@@ -3450,13 +4608,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
@@ -3465,28 +4627,36 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
@@ -3495,13 +4665,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>239</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
@@ -3510,28 +4684,36 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>245</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
@@ -3540,43 +4722,55 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="21" s="1" customFormat="1" spans="1:7">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>254</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -3585,28 +4779,36 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
@@ -3615,48 +4817,75 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="11"/>
-      <c r="B27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3666,18 +4895,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -3688,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3744,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3768,7 +4997,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3796,7 +5025,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3804,12 +5033,14 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3822,28 +5053,36 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
@@ -3852,13 +5091,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
@@ -3867,13 +5110,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
@@ -3882,13 +5129,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
@@ -3897,13 +5148,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
@@ -3912,13 +5167,17 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>283</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
@@ -3927,13 +5186,17 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
@@ -3942,28 +5205,36 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
@@ -3972,13 +5243,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
@@ -3987,13 +5262,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
@@ -4002,13 +5281,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
@@ -4017,48 +5300,77 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="11"/>
-      <c r="B27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission _New Screens.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission _New Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Student Re-Reg. Tool" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="211">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -56,7 +56,10 @@
 5.Student Batch</t>
   </si>
   <si>
-    <t>url: wscdemo.eduleadonline.com</t>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -74,7 +77,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Results (SLCM Admin )</t>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -83,9 +86,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>BUG ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Admission &gt;  Student Reregistration Tool </t>
   </si>
   <si>
@@ -95,25 +95,10 @@
     <t>Student Reregistration Tool  page should be open</t>
   </si>
   <si>
-    <t>Student Reregistration Tool  page is not showing to SLCM Admin</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>EDU Admin has not get permission</t>
-  </si>
-  <si>
     <t>View the Student Reregistration Tool  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Student Reregistration Tool  page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saved data is showing on Student Reregistration Tool  page</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>click on course type dropdown, select the data from dropdown</t>
@@ -123,10 +108,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>user is able to select the data from course type dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on course  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -134,10 +115,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>user is able to select the data from course  dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Semester  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -145,10 +122,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>user is able to select the data from Semester  dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Academic Year  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -156,10 +129,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>user is able to select the data from Academic Year  dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Academic Term  dropdown, select the data from dropdown</t>
   </si>
   <si>
@@ -167,44 +136,28 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>user is able to select the data from Academic Term  dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>after fill course type, course, semester, academic year &amp; academic term, click on Get student button</t>
   </si>
   <si>
     <t>list of students and their datas should be shown properly</t>
   </si>
   <si>
-    <t>Roll number and registration number is not showing</t>
-  </si>
-  <si>
     <t>click on add row button of students table</t>
   </si>
   <si>
     <t>new row should be added in student table</t>
   </si>
   <si>
-    <t>new row is adding in student table</t>
-  </si>
-  <si>
     <t>click on view button of table</t>
   </si>
   <si>
     <t>student details should be shown properly</t>
   </si>
   <si>
-    <t>student details is showing properly</t>
-  </si>
-  <si>
     <t>verify the student details</t>
   </si>
   <si>
     <t>student details should be editable</t>
-  </si>
-  <si>
-    <t>student details is editable</t>
   </si>
   <si>
     <t>click on Student dropdown, select the student</t>
@@ -215,11 +168,6 @@
 that student details should be auto fetched</t>
   </si>
   <si>
-    <t>user is able to select the student
-it is a link field
-that student details is auto fetched</t>
-  </si>
-  <si>
     <t>click on Student Batch Name dropdown, select data</t>
   </si>
   <si>
@@ -228,11 +176,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Student Batch Name dropdown is clickable
-user is able to select data from Student Batch Name dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Additional Course 1 dropdown, select data</t>
   </si>
   <si>
@@ -241,11 +184,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Additional Course 1 dropdown is clickable
-user is able to select data from Additional Course 1 dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Additional Course 2 dropdown, select data</t>
   </si>
   <si>
@@ -254,11 +192,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Additional Course 2 dropdown is clickable
-user is able to select data from Additional Course 2 dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Additional Course 3 dropdown, select data</t>
   </si>
   <si>
@@ -267,11 +200,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Additional Course 3 dropdown is clickable
-user is able to select data from Additional Course 2 dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Roll No text field, fill it</t>
   </si>
   <si>
@@ -279,19 +207,11 @@
 user should able to fill Roll No text field</t>
   </si>
   <si>
-    <t>Roll No textbox is clickable
-user is able to fill Roll No text field</t>
-  </si>
-  <si>
     <t>click on Registration Number text field, fill it</t>
   </si>
   <si>
     <t>Registration Number textbox should be clickable
 user should able to fill Registration Number text field</t>
-  </si>
-  <si>
-    <t>Registration Number textbox is clickable
-user is able to fill Registration Number text field</t>
   </si>
   <si>
     <t>click on New Semester dropdown, select data</t>
@@ -302,11 +222,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>New Semester dropdown is clickable
-user is able to select data from New Semester dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on New Student Batch dropdown, select data</t>
   </si>
   <si>
@@ -315,11 +230,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>New Student Batch dropdown is clickable
-user is able to select data from New Student Batch dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on New Academic Year dropdown, select data</t>
   </si>
   <si>
@@ -328,11 +238,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>New Academic Year dropdown is clickable
-user is able to select data from New Academic Year dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on New Academic Term dropdown, select data</t>
   </si>
   <si>
@@ -341,11 +246,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>New Academic Term dropdown is clickable
-user is able to select data from New Academic Term dropdown
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Fees Due Date field, put the date</t>
   </si>
   <si>
@@ -354,19 +254,11 @@
 user should able to put the date</t>
   </si>
   <si>
-    <t>Fees Due Date field is clickable. 
-date picker box is opening
-user is able to put the date</t>
-  </si>
-  <si>
     <t>click on Enroll Students button</t>
   </si>
   <si>
     <t xml:space="preserve">students should be enrolled for particular mentioned course
 Mandatory Courses table should be auto fetched </t>
-  </si>
-  <si>
-    <t>After fill all mandatory and required fields, click on Enroll students button, then Enrolling students is not done properly. screen is freezed. background screen is erased</t>
   </si>
   <si>
     <t>Roles And Permission</t>
@@ -441,12 +333,6 @@
     <t>New Student Attrition Form, Student Information, Reason For Leaving</t>
   </si>
   <si>
-    <t>Actual Results (SLCM Admin)</t>
-  </si>
-  <si>
-    <t>Actual Results (Student)</t>
-  </si>
-  <si>
     <t>Admission &gt;  Student Attrition Form</t>
   </si>
   <si>
@@ -456,25 +342,16 @@
     <t>Student Attrition Form  page should be open</t>
   </si>
   <si>
-    <t>Student Attrition Form  page is opening</t>
-  </si>
-  <si>
     <t>View the Student Attrition Form  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Student Attrition Form  page</t>
   </si>
   <si>
-    <t xml:space="preserve"> saved data is showing on Student Attrition Form  page</t>
-  </si>
-  <si>
     <t>Click on add Student Attrition Form button</t>
   </si>
   <si>
     <t>new Student Attrition Form should be created</t>
-  </si>
-  <si>
-    <t>new Student Attrition Form is created</t>
   </si>
   <si>
     <t>click on Student No dropdown, select the student</t>
@@ -483,11 +360,6 @@
     <t>Student No dropdown should be clickable
 user should able to select student
 it should be a link field</t>
-  </si>
-  <si>
-    <t>Student No dropdown is clickable
-user is able to select student
-it is a link field</t>
   </si>
   <si>
     <t>verify the Student Information after select the student</t>
@@ -499,12 +371,6 @@
 mobile number field should only be editable</t>
   </si>
   <si>
-    <t>Student Information is auto fetched
-Student Name, Joining Date, Student Applicant, Student Email Address, Student Mobile Number, Student Category, Gender fields are auto fetched
-that fields is not editable
-mobile number field is only  editable</t>
-  </si>
-  <si>
     <t>click on mobile numbertext field, fill it or edity edit</t>
   </si>
   <si>
@@ -512,10 +378,6 @@
 user should able to fill or edit it only with numeric</t>
   </si>
   <si>
-    <t>mobile number field is clickable
-user is able to fill or edit it only with numeric</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify the Current Educational Details after fill student </t>
   </si>
   <si>
@@ -523,10 +385,6 @@
 Status of Attendence, Posting Date fields should be auto fetched</t>
   </si>
   <si>
-    <t>Current Educational Detailsis auto fetched
-Status of Attendence, Posting Date fields are auto fetched</t>
-  </si>
-  <si>
     <t>click on Decided to further education or training abroad dropdown</t>
   </si>
   <si>
@@ -534,17 +392,10 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Decided to further education or training abroad dropdown
-default data is : Yes &amp; No</t>
-  </si>
-  <si>
     <t>verify the screen when user select 'Yes' in Decided to further education or training abroad dropdown</t>
   </si>
   <si>
     <t>Name of Institution, Level of Course, Course Title  fields should be open</t>
-  </si>
-  <si>
-    <t>Name of Institution, Level of Course, Course Title  fields are opening</t>
   </si>
   <si>
     <t>click on Name of Institution text field, fill it</t>
@@ -554,10 +405,6 @@
 user should able to fill Name of Institution text field</t>
   </si>
   <si>
-    <t>Name of Institution text field is clickable. 
-user is able to fill Name of Institution text field</t>
-  </si>
-  <si>
     <t>click on Level of Course dropdown , select data</t>
   </si>
   <si>
@@ -565,10 +412,6 @@
 default data should be : ITI,  Diploma, Engineering, Other </t>
   </si>
   <si>
-    <t xml:space="preserve">User is able to select data from Level of Course dropdwon 
-default data is : ITI,  Diploma, Engineering, Other </t>
-  </si>
-  <si>
     <t>click on Course Title  text field, fill it</t>
   </si>
   <si>
@@ -576,10 +419,6 @@
 user should able to fill Course Title  text field</t>
   </si>
   <si>
-    <t>Course Title  text field is clickable. 
-user is able to fill Course Title  text field</t>
-  </si>
-  <si>
     <t>click on Decided to join other local institution dropdown</t>
   </si>
   <si>
@@ -587,10 +426,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Decided to join other local institution dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Decided to join the College, Polytechnic dropdown</t>
   </si>
   <si>
@@ -598,10 +433,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Decided to join the College, Polytechnic dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Had to work to supplement family income  dropdown</t>
   </si>
   <si>
@@ -609,10 +440,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Had to work to supplement family income dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Preferred to work than to continue with training  dropdown</t>
   </si>
   <si>
@@ -620,10 +447,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Preferred to work than to continue with training dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Needed to help out in family business  dropdown</t>
   </si>
   <si>
@@ -631,10 +454,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Needed to help out in family business dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Needed to work to support myself dropdown</t>
   </si>
   <si>
@@ -642,10 +461,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Needed to work to support myself dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Lost interest in study dropdown</t>
   </si>
   <si>
@@ -653,10 +468,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Lost interest in study dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Course not of my interest/choice dropdown</t>
   </si>
   <si>
@@ -664,10 +475,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Course not of my interest/choice dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Persuaded to leave by parents/family members/relatives dropdown</t>
   </si>
   <si>
@@ -675,10 +482,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Persuaded to leave by parents/family members/relatives dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Campus/Hostel too far from home dropdown</t>
   </si>
   <si>
@@ -686,19 +489,11 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Campus/Hostel too far from home dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Family problems dropdown</t>
   </si>
   <si>
     <t>user should able to select data from Family problems dropdown
 default data should be : Yes &amp; No</t>
-  </si>
-  <si>
-    <t>user is able to select data from Family problems dropdown
-default data is  : Yes &amp; No</t>
   </si>
   <si>
     <t>click on Could not cope with course dropdown</t>
@@ -709,11 +504,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Could not cope with course
- dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Medical reasons dropdown</t>
   </si>
   <si>
@@ -721,10 +511,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Medical reasons dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Enforced attrition (under full time legal detention) dropdown</t>
   </si>
   <si>
@@ -732,10 +518,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Enforced attrition (under full time legal detention) dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Non reporting dropdown</t>
   </si>
   <si>
@@ -743,10 +525,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Non reporting dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Long absence from training without reason and not contactable dropdown</t>
   </si>
   <si>
@@ -754,10 +532,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Long absence from training without reason and not contactable dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Classmates and peers not helpful and friendly dropdown</t>
   </si>
   <si>
@@ -765,10 +539,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Classmates and peers not helpful and friendly dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Unable to pay fees due to Financial Difficulties dropdown</t>
   </si>
   <si>
@@ -776,10 +546,6 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Unable to pay fees due to Financial Difficulties dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Deceased dropdown</t>
   </si>
   <si>
@@ -787,44 +553,28 @@
 default data should be : Yes &amp; No</t>
   </si>
   <si>
-    <t>user is able to select data from Deceased dropdown
-default data is  : Yes &amp; No</t>
-  </si>
-  <si>
     <t>click on Additional Details by CA text area, fill it</t>
   </si>
   <si>
     <t>Additional Details by CA text raea should be clickable. user should able to fill it</t>
   </si>
   <si>
-    <t>Additional Details by CA text raea is clickable. user is able to fill it</t>
-  </si>
-  <si>
     <t>after fill all mandatory and required fields, click on save button</t>
   </si>
   <si>
     <t xml:space="preserve">page should be saved successfully. it should be on draft stage. </t>
   </si>
   <si>
-    <t xml:space="preserve">page is saved successfully. it is on draft stage. </t>
-  </si>
-  <si>
     <t>click on action - &gt; submit button</t>
   </si>
   <si>
     <t xml:space="preserve">page should be submitted successfiully. it should be on submit stage. </t>
   </si>
   <si>
-    <t xml:space="preserve">action for submit is not showing to SLCM Admin </t>
-  </si>
-  <si>
     <t>click on action - &gt; approve button</t>
   </si>
   <si>
     <t xml:space="preserve">page should be approved successfiully. it should be on approved stage. </t>
-  </si>
-  <si>
-    <t>action for approve is not showing to SlCM Admin</t>
   </si>
   <si>
     <r>
@@ -851,29 +601,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select, Read,Write,Create,Delete, 
-but can't  submit, cancel , amend</t>
-    </r>
+    <t>Fail</t>
   </si>
   <si>
     <r>
@@ -933,31 +661,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create,
-but can't Delete</t>
-    </r>
-  </si>
-  <si>
     <t>TC03_Identity Card</t>
   </si>
   <si>
@@ -972,9 +675,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Actual Results </t>
-  </si>
-  <si>
     <t>Admission &gt;  Identity Card</t>
   </si>
   <si>
@@ -984,34 +684,22 @@
     <t>Identity Card  page should be open</t>
   </si>
   <si>
-    <t>Identity Card  page is opening</t>
-  </si>
-  <si>
     <t>View the Identity Card  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Identity Card  page</t>
   </si>
   <si>
-    <t xml:space="preserve"> saved data is showing on Identity Card  page</t>
-  </si>
-  <si>
     <t>Click on add Identity Card button</t>
   </si>
   <si>
     <t>new Identity Card should be created</t>
   </si>
   <si>
-    <t>new Identity Card is creating</t>
-  </si>
-  <si>
     <t>Click on Student dropdown , selet the data</t>
   </si>
   <si>
     <t xml:space="preserve">User should able to select the student from Student dropdown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to select the student from Student dropdown </t>
   </si>
   <si>
     <t>verify the screen after select Student</t>
@@ -1021,10 +709,6 @@
 it should not be editable. passport photo, Class/Stream should be editable only</t>
   </si>
   <si>
-    <t>Student Name, Roll No, Father's Name, Class/Stream, Passport Photo,  D.O.B &amp; Blood Groups are auto fetched
-it is not editable. passport photo, Class/Stream should be editable only</t>
-  </si>
-  <si>
     <t>click on Class/Stream dropdown , select the data</t>
   </si>
   <si>
@@ -1032,10 +716,6 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Class/Stream dropdown is clickable. user is able to select the data from Class/Stream. 
-it is a link field</t>
-  </si>
-  <si>
     <t>click on Session dropdown , select the data</t>
   </si>
   <si>
@@ -1043,17 +723,10 @@
 it should be a link field</t>
   </si>
   <si>
-    <t>Session dropdown is clickable. user is able to select the data from Session. 
-it is a link field</t>
-  </si>
-  <si>
     <t>type the barcode, then Verify the Barcode</t>
   </si>
   <si>
     <t>Barcode should be auto generated</t>
-  </si>
-  <si>
-    <t>Barcode is auto generated</t>
   </si>
   <si>
     <t>click on Attach button of passport photo</t>
@@ -1063,10 +736,6 @@
 link should be shown for choose the document or photo</t>
   </si>
   <si>
-    <t>new popup is opening
-link is showing for choose the document or photo</t>
-  </si>
-  <si>
     <t>click any link , choose the photo</t>
   </si>
   <si>
@@ -1074,17 +743,10 @@
 user should able to choose the photo through link</t>
   </si>
   <si>
-    <t>link is clickable.
-user is able to choose the photo through link</t>
-  </si>
-  <si>
     <t>click on upload button</t>
   </si>
   <si>
     <t>photo should be uploaded</t>
-  </si>
-  <si>
-    <t>photo is uploading</t>
   </si>
   <si>
     <t>click on Attach button of Principal</t>
@@ -1097,37 +759,10 @@
 user should able to choose the document through link</t>
   </si>
   <si>
-    <t>link is clickable.
-user is able to choose the document through link</t>
-  </si>
-  <si>
     <t>document should be uploaded</t>
   </si>
   <si>
-    <t>document is uploading</t>
-  </si>
-  <si>
     <t>page should be saved successfully.</t>
-  </si>
-  <si>
-    <t>page is saved successfully.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The user have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create,Delete</t>
-    </r>
   </si>
   <si>
     <t>TC04_Identity Card Tool</t>
@@ -1220,10 +855,6 @@
   </si>
   <si>
     <t xml:space="preserve">identity card should be created for those students </t>
-  </si>
-  <si>
-    <t>Identity card is not generated, when click on create identity card button
-Server error message is showing</t>
   </si>
   <si>
     <r>
@@ -1249,33 +880,16 @@
       <t xml:space="preserve"> Read,Write,Create,Delete</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Read,Write,Create,Delete</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1316,6 +930,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1460,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1470,12 +1085,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1684,6 +1293,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1801,16 +1447,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1819,7 +1465,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1831,119 +1477,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1962,37 +1608,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,24 +2195,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.8571428571429" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2563,9 +2227,8 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2578,57 +2241,51 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2639,18 +2296,16 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2669,533 +2324,392 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="D11" s="3"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A27" s="8">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A28" s="8">
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A29" s="8">
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="30" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A30" s="8">
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="31" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A31" s="8">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="32" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A32" s="8">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="33" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A33" s="8">
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A34" s="8">
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3">
-        <v>271</v>
-      </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="11">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="11"/>
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="12"/>
+      <c r="B36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:1">
+      <c r="A38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3205,47 +2719,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="48.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3256,107 +2762,58 @@
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:11">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:11">
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3367,1042 +2824,520 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="90" spans="1:11">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="90" spans="1:5">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:11">
+        <v>86</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:11">
+        <v>92</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:11">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>96</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:11">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>106</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>108</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A27" s="8">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>110</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A28" s="8">
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>112</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A29" s="8">
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>114</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A30" s="8">
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A31" s="8">
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>118</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A32" s="8">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A33" s="8">
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="60" spans="1:11">
+        <v>122</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A34" s="8">
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>124</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A35" s="8">
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>126</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A36" s="8">
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>128</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A37" s="8">
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="60" spans="1:11">
+        <v>130</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A38" s="8">
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>132</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A39" s="8">
         <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="45" spans="1:11">
+        <v>134</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A40" s="8">
         <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:11">
+        <v>136</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A41" s="8">
         <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="30" spans="1:11">
+        <v>138</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A42" s="8">
         <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:11">
+        <v>140</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:5">
       <c r="A43" s="8">
         <v>33</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:11">
+        <v>142</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:5">
       <c r="A44" s="8">
         <v>34</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="3">
-        <v>272</v>
-      </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:11">
+        <v>144</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:5">
       <c r="A45" s="8">
         <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="3">
-        <v>273</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:1">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="3">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="3">
-        <v>274</v>
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:5">
+      <c r="A47" s="12"/>
+      <c r="B47" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A48" s="12"/>
+      <c r="B48" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A49" s="12"/>
+      <c r="B49" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:K1"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B47:C47"/>
   </mergeCells>
@@ -4414,41 +3349,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.9523809523809" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="D1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4461,79 +3395,72 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4544,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -4552,338 +3479,257 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>99</v>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
@@ -4895,13 +3741,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
@@ -4912,24 +3758,23 @@
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4942,79 +3787,72 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -5025,7 +3863,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -5033,342 +3871,257 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>279</v>
-      </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>99</v>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
